--- a/experiment_results/SBFL_ONLY/CATEGORIZED_BUGS/code_elements.xlsx
+++ b/experiment_results/SBFL_ONLY/CATEGORIZED_BUGS/code_elements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanngokien/Desktop/Software_Analysis/configurable_system/InputPreparation/experiment_results/SBFL_ONLY/CATEGORIZED_BUGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B710B5-71FB-FC45-9036-86B3FBD9FC05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C63F84-C8FF-304F-924A-5514C9B1F8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{CC81D2FC-DDF0-6A42-9731-41A03FE18EB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="614">
   <si>
     <t>AutoResponder.EmailSystem.Client.COI_2</t>
   </si>
@@ -696,9 +696,6 @@
     <t>DerivativeGZIPCRC.net.sf.zipme.GZIPInputStream.AOIU_7</t>
   </si>
   <si>
-    <t>Extract.net.sf.zipme.ZipArchive.ROR_2</t>
-  </si>
-  <si>
     <t>Extract.net.sf.zipme.ZipInputStream.AODU_2</t>
   </si>
   <si>
@@ -1564,9 +1561,6 @@
   </si>
   <si>
     <t>if (-numRead &gt; 0) {</t>
-  </si>
-  <si>
-    <t>if (inp.readLeInt() == LOCSIG) {</t>
   </si>
   <si>
     <t>return 1;</t>
@@ -2108,8 +2102,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16165271620459207"/>
-                  <c:y val="0.13521730739539911"/>
+                  <c:x val="-0.16795523721299543"/>
+                  <c:y val="0.12704737275487624"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2129,8 +2123,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3220070289141263E-2"/>
-                  <c:y val="-0.22796208530805678"/>
+                  <c:x val="2.2673856944352467E-2"/>
+                  <c:y val="-0.23940005661057073"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2151,7 +2145,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.17692094554357177"/>
-                  <c:y val="-2.0276877155061501E-2"/>
+                  <c:y val="-3.0080798723688951E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2171,8 +2165,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10158108912856481"/>
-                  <c:y val="5.9294555092378159E-2"/>
+                  <c:x val="0.10893403030503536"/>
+                  <c:y val="4.458867273943698E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2293,19 +2287,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1128</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1391</c:v>
+                  <c:v>1236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>245</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,7 +2319,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
+        <c:firstSliceAng val="9"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3245,7 +3239,7 @@
   <dimension ref="A2:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="L4" sqref="L4:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3258,23 +3252,23 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="F3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>613</v>
-      </c>
-      <c r="I3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3282,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3301,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L4" s="1">
         <v>95</v>
@@ -3312,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3331,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
         <v>97</v>
@@ -3342,26 +3336,26 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -3372,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3391,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="1">
         <v>30</v>
@@ -3402,10 +3396,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3421,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1">
         <v>44</v>
@@ -3432,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3456,10 +3450,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3480,10 +3474,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3504,10 +3498,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3528,10 +3522,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3552,10 +3546,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3576,10 +3570,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3600,10 +3594,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3624,10 +3618,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3648,10 +3642,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3672,10 +3666,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3696,10 +3690,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3720,10 +3714,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3744,10 +3738,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3768,10 +3762,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3792,10 +3786,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3816,10 +3810,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3840,10 +3834,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3864,10 +3858,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3888,10 +3882,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3912,10 +3906,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3936,10 +3930,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3960,10 +3954,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3984,10 +3978,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4008,10 +4002,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4032,10 +4026,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4056,10 +4050,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4080,10 +4074,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4104,10 +4098,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4128,10 +4122,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4152,10 +4146,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4198,23 +4192,23 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G4" t="s">
         <v>611</v>
       </c>
-      <c r="F4" t="s">
-        <v>612</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>613</v>
-      </c>
-      <c r="I4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4222,10 +4216,10 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4241,7 +4235,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L5" s="1">
         <v>107</v>
@@ -4252,10 +4246,10 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4271,7 +4265,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -4282,10 +4276,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4301,7 +4295,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L7" s="1">
         <v>18</v>
@@ -4312,10 +4306,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4331,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L8" s="1">
         <v>44</v>
@@ -4342,10 +4336,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4361,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L9" s="1">
         <v>116</v>
@@ -4372,10 +4366,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4396,10 +4390,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4420,10 +4414,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4444,10 +4438,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4468,10 +4462,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4492,10 +4486,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4516,10 +4510,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4540,10 +4534,10 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4564,10 +4558,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4588,10 +4582,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4612,10 +4606,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4636,10 +4630,10 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4660,10 +4654,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4684,10 +4678,10 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4708,10 +4702,10 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4754,23 +4748,23 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="F3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>613</v>
-      </c>
-      <c r="I3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4778,10 +4772,10 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4797,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L4" s="1">
         <v>260</v>
@@ -4808,10 +4802,10 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4827,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
         <v>313</v>
@@ -4838,26 +4832,26 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -4868,10 +4862,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4887,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -4898,10 +4892,10 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4917,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1">
         <v>192</v>
@@ -4928,10 +4922,10 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4952,10 +4946,10 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4976,10 +4970,10 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5000,10 +4994,10 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5024,10 +5018,10 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5048,10 +5042,10 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5072,10 +5066,10 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5096,10 +5090,10 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5120,10 +5114,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5144,10 +5138,10 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5168,10 +5162,10 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5192,10 +5186,10 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5216,10 +5210,10 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5240,10 +5234,10 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5264,10 +5258,10 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5288,10 +5282,10 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5312,10 +5306,10 @@
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5336,10 +5330,10 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5360,10 +5354,10 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5384,10 +5378,10 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5408,10 +5402,10 @@
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5432,10 +5426,10 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5456,10 +5450,10 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5480,10 +5474,10 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5504,10 +5498,10 @@
         <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5528,10 +5522,10 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5552,10 +5546,10 @@
         <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5576,10 +5570,10 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5600,10 +5594,10 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5624,10 +5618,10 @@
         <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5648,10 +5642,10 @@
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5672,10 +5666,10 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5696,10 +5690,10 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5720,10 +5714,10 @@
         <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5744,10 +5738,10 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -5768,10 +5762,10 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5792,10 +5786,10 @@
         <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5816,10 +5810,10 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5840,10 +5834,10 @@
         <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5864,10 +5858,10 @@
         <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5888,10 +5882,10 @@
         <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5912,10 +5906,10 @@
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5936,10 +5930,10 @@
         <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5960,10 +5954,10 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5984,10 +5978,10 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -6008,10 +6002,10 @@
         <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -6032,10 +6026,10 @@
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6056,10 +6050,10 @@
         <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -6080,10 +6074,10 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -6104,10 +6098,10 @@
         <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -6128,10 +6122,10 @@
         <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6152,10 +6146,10 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -6176,10 +6170,10 @@
         <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -6200,10 +6194,10 @@
         <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6224,10 +6218,10 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6248,10 +6242,10 @@
         <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6272,10 +6266,10 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6296,10 +6290,10 @@
         <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6320,10 +6314,10 @@
         <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6344,10 +6338,10 @@
         <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6368,10 +6362,10 @@
         <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6392,10 +6386,10 @@
         <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6416,10 +6410,10 @@
         <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6440,10 +6434,10 @@
         <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6464,10 +6458,10 @@
         <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6488,10 +6482,10 @@
         <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6512,10 +6506,10 @@
         <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6536,10 +6530,10 @@
         <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6582,23 +6576,23 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="F3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>613</v>
-      </c>
-      <c r="I3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6606,29 +6600,29 @@
         <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="I4">
         <f>SUM(E4:G4)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L4" s="1">
-        <v>353</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6636,29 +6630,29 @@
         <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I52" si="0">SUM(E5:G5)</f>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
-        <v>554</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6666,29 +6660,29 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>13</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L6" s="1">
-        <v>250</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6696,26 +6690,26 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>28</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -6726,29 +6720,29 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6756,23 +6750,23 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6780,23 +6774,23 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6804,23 +6798,23 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6828,10 +6822,10 @@
         <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6852,23 +6846,23 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6876,23 +6870,23 @@
         <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>30</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6900,23 +6894,23 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6924,10 +6918,10 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6948,23 +6942,23 @@
         <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6972,10 +6966,10 @@
         <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6996,23 +6990,23 @@
         <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -7020,23 +7014,23 @@
         <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7044,23 +7038,23 @@
         <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -7068,10 +7062,10 @@
         <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -7092,23 +7086,23 @@
         <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -7116,23 +7110,23 @@
         <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -7140,10 +7134,10 @@
         <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -7164,23 +7158,23 @@
         <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7188,10 +7182,10 @@
         <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7212,23 +7206,23 @@
         <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>13</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -7236,23 +7230,23 @@
         <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>7</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -7260,23 +7254,23 @@
         <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7284,23 +7278,23 @@
         <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -7308,23 +7302,23 @@
         <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -7332,23 +7326,23 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -7356,23 +7350,23 @@
         <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>7</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7380,23 +7374,23 @@
         <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>8</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7404,23 +7398,23 @@
         <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7428,10 +7422,10 @@
         <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7452,10 +7446,10 @@
         <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -7476,23 +7470,23 @@
         <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7500,10 +7494,10 @@
         <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -7524,10 +7518,10 @@
         <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -7548,23 +7542,23 @@
         <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7572,23 +7566,23 @@
         <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7596,10 +7590,10 @@
         <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -7620,23 +7614,23 @@
         <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7644,10 +7638,10 @@
         <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -7668,23 +7662,23 @@
         <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>4</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7692,23 +7686,23 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <v>5</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7716,23 +7710,23 @@
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7740,23 +7734,23 @@
         <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <v>7</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7764,23 +7758,23 @@
         <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>5</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7788,23 +7782,23 @@
         <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <v>9</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7818,7 +7812,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182086EA-4A88-BE4B-A2C2-FD2915915577}">
-  <dimension ref="A2:L59"/>
+  <dimension ref="A2:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4:L8"/>
@@ -7834,23 +7828,23 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="F3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>613</v>
-      </c>
-      <c r="I3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -7858,29 +7852,29 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <f>SUM(E4:G4)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L4" s="1">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7888,29 +7882,29 @@
         <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I59" si="0">SUM(E5:G5)</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
-        <v>156</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -7918,26 +7912,26 @@
         <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -7948,29 +7942,29 @@
         <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="1">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7978,10 +7972,10 @@
         <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7990,17 +7984,17 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1">
-        <v>61</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8008,23 +8002,23 @@
         <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -8032,10 +8026,10 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -8056,10 +8050,10 @@
         <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -8080,10 +8074,10 @@
         <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -8104,10 +8098,10 @@
         <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -8128,10 +8122,10 @@
         <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -8152,10 +8146,10 @@
         <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -8176,23 +8170,23 @@
         <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -8200,10 +8194,10 @@
         <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -8224,10 +8218,10 @@
         <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -8248,10 +8242,10 @@
         <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -8272,10 +8266,10 @@
         <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -8296,10 +8290,10 @@
         <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -8320,10 +8314,10 @@
         <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -8344,10 +8338,10 @@
         <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -8368,10 +8362,10 @@
         <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -8392,23 +8386,23 @@
         <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -8416,10 +8410,10 @@
         <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -8440,23 +8434,23 @@
         <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -8464,10 +8458,10 @@
         <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -8488,23 +8482,23 @@
         <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>9</v>
       </c>
-      <c r="G29">
-        <v>19</v>
-      </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -8512,23 +8506,23 @@
         <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -8536,10 +8530,10 @@
         <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -8560,10 +8554,10 @@
         <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -8584,10 +8578,10 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -8608,23 +8602,23 @@
         <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -8632,10 +8626,10 @@
         <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -8656,10 +8650,10 @@
         <v>210</v>
       </c>
       <c r="B36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -8680,10 +8674,10 @@
         <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -8704,10 +8698,10 @@
         <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -8728,10 +8722,10 @@
         <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8752,10 +8746,10 @@
         <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -8776,10 +8770,10 @@
         <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8800,23 +8794,23 @@
         <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -8824,10 +8818,10 @@
         <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8848,23 +8842,23 @@
         <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -8872,23 +8866,23 @@
         <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -8896,23 +8890,23 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -8920,23 +8914,23 @@
         <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -8944,23 +8938,23 @@
         <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -8968,23 +8962,23 @@
         <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -8992,10 +8986,10 @@
         <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -9004,11 +8998,11 @@
         <v>9</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -9016,23 +9010,23 @@
         <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -9040,23 +9034,23 @@
         <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -9064,23 +9058,23 @@
         <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -9088,23 +9082,23 @@
         <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9112,23 +9106,23 @@
         <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -9136,10 +9130,10 @@
         <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -9148,11 +9142,11 @@
         <v>9</v>
       </c>
       <c r="G56">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -9160,23 +9154,23 @@
         <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -9184,47 +9178,23 @@
         <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" t="s">
-        <v>520</v>
-      </c>
-      <c r="C59" t="s">
-        <v>362</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9241,7 +9211,7 @@
   <dimension ref="A2:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K8"/>
+      <selection activeCell="L4" sqref="L4:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9255,34 +9225,34 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>611</v>
       </c>
-      <c r="F3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>613</v>
-      </c>
-      <c r="I3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9298,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L4" s="1">
         <v>269</v>
@@ -9306,13 +9276,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9328,7 +9298,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
         <v>271</v>
@@ -9336,13 +9306,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9358,7 +9328,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
@@ -9366,13 +9336,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9388,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L7" s="1">
         <v>139</v>
@@ -9396,13 +9366,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -9418,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1">
         <v>35</v>
@@ -9426,13 +9396,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9450,13 +9420,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9474,13 +9444,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -9498,13 +9468,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -9522,13 +9492,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -9546,13 +9516,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -9570,13 +9540,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -9594,13 +9564,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -9618,13 +9588,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -9642,13 +9612,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9666,13 +9636,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -9690,13 +9660,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -9714,13 +9684,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -9738,13 +9708,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -9762,13 +9732,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -9786,13 +9756,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -9810,13 +9780,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -9834,13 +9804,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -9858,13 +9828,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -9882,13 +9852,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -9906,13 +9876,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -9930,13 +9900,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -9954,13 +9924,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -9978,13 +9948,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10002,13 +9972,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -10026,13 +9996,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -10050,13 +10020,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -10074,13 +10044,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -10098,13 +10068,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10122,13 +10092,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -10146,13 +10116,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -10170,13 +10140,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -10194,13 +10164,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -10218,13 +10188,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -10242,13 +10212,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -10266,13 +10236,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10290,13 +10260,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -10314,13 +10284,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -10338,13 +10308,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -10362,13 +10332,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -10386,13 +10356,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -10410,13 +10380,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -10434,13 +10404,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10458,13 +10428,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -10482,13 +10452,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -10506,13 +10476,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -10530,13 +10500,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -10554,13 +10524,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -10578,13 +10548,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -10602,13 +10572,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -10626,13 +10596,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -10650,13 +10620,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -10674,13 +10644,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -10698,13 +10668,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -10722,13 +10692,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -10746,13 +10716,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -10770,13 +10740,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -10794,13 +10764,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -10818,13 +10788,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -10842,13 +10812,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -10866,13 +10836,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B69" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -10890,13 +10860,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -10914,13 +10884,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10938,13 +10908,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -10962,13 +10932,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -10986,13 +10956,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -11010,13 +10980,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -11034,13 +11004,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B76" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -11058,13 +11028,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -11082,13 +11052,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -11106,13 +11076,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -11130,13 +11100,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B80" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -11154,13 +11124,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B81" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C81" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -11178,13 +11148,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -11202,13 +11172,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -11226,13 +11196,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -11250,13 +11220,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -11274,13 +11244,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -11298,13 +11268,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11322,13 +11292,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -11346,13 +11316,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -11370,13 +11340,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -11394,13 +11364,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -11418,13 +11388,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -11442,13 +11412,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -11466,13 +11436,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -11490,13 +11460,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11514,13 +11484,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -11538,13 +11508,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -11562,13 +11532,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -11586,13 +11556,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -11610,13 +11580,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -11634,13 +11604,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -11658,13 +11628,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -11682,13 +11652,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -11706,13 +11676,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C104" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -11730,13 +11700,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -11754,13 +11724,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -11778,13 +11748,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -11802,13 +11772,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -11838,7 +11808,7 @@
   <dimension ref="B5:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11848,42 +11818,42 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="3">
-        <v>1128</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="3">
-        <v>1391</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="3">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="3">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="3">
-        <v>570</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
